--- a/TestData/ExcelFile.xlsx
+++ b/TestData/ExcelFile.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="253">
   <si>
     <t>USER NAME</t>
   </si>
@@ -772,6 +772,24 @@
   </si>
   <si>
     <t>Cognizant University</t>
+  </si>
+  <si>
+    <t>11:32PM</t>
+  </si>
+  <si>
+    <t>7:02PM</t>
+  </si>
+  <si>
+    <t>2:02PM</t>
+  </si>
+  <si>
+    <t>11:41AM</t>
+  </si>
+  <si>
+    <t>7:11AM</t>
+  </si>
+  <si>
+    <t>2:11AM</t>
   </si>
 </sst>
 </file>
@@ -1122,10 +1140,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1158,7 +1176,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>167</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1166,7 +1184,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>168</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1174,7 +1192,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>169</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
